--- a/Excel/Account.xlsx
+++ b/Excel/Account.xlsx
@@ -13,8 +13,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Self = "Self",      --施法者本身
+    Friend = "Friend",  --友方个体，包括自己
+    Enemy = "Enemy",    --敌方
+    AOE = "AOE",        --具体位置（形状）
+    Pos = "Pos",        --具体位置（形状）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,22 +96,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结算动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>micro_dragon_atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>micro_dragon_atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>micro_dragon_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>targetMode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,6 +109,34 @@
   </si>
   <si>
     <t>格子选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +164,21 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -452,11 +523,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -479,10 +550,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -513,24 +584,26 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -541,13 +614,46 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/Account.xlsx
+++ b/Excel/Account.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Villager_B_Boy_atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Villager_B_Boy_skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,6 +133,42 @@
   </si>
   <si>
     <t>Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_atk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_atk3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -537,9 +569,11 @@
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -555,8 +589,14 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,8 +612,14 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -584,13 +630,19 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -599,13 +651,17 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -614,40 +670,96 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Account.xlsx
+++ b/Excel/Account.xlsx
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,7 +88,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能</t>
+    <t>micro_dragon_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gridSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_atk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_atk3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_dragon_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_dragon_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_dragon_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro_dragon_atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,79 +216,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>micro_dragon_atk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gridSelect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格子选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villager_B_Boy_skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villager_B_Boy_atk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villager_B_Boy_atk2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Villager_B_Boy_atk3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害加成</t>
+    <t>Villager_B_Boy_atk</t>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Villager_B_Boy_skill3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,24 +623,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -581,22 +649,25 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,22 +675,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -627,138 +701,253 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.24</v>
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.45</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.45</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.71</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Account.xlsx
+++ b/Excel/Account.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,22 @@
   </si>
   <si>
     <t>Villager_B_Boy_skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghost_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf_atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Werewolf_skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -721,13 +737,13 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -736,92 +752,92 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>0.24</v>
+      </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1">
-        <v>0.45</v>
+        <v>0.66</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.71</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -830,22 +846,20 @@
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1">
-        <v>0.24</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -854,22 +868,20 @@
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="1">
-        <v>0.45</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -878,76 +890,172 @@
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1">
-        <v>0.66</v>
-      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.45</v>
+      </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H17" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Account.xlsx
+++ b/Excel/Account.xlsx
@@ -148,18 +148,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>damageAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伤害加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Villager_B_Boy_skill2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,6 +244,14 @@
   </si>
   <si>
     <t>Werewolf_skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageRatio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +642,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -665,7 +665,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -680,7 +680,7 @@
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -706,7 +706,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -717,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -732,7 +732,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -743,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -756,7 +756,7 @@
         <v>0.24</v>
       </c>
       <c r="H4" s="1">
-        <v>0.1</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -767,7 +767,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -780,7 +780,7 @@
         <v>0.45</v>
       </c>
       <c r="H5" s="1">
-        <v>0.2</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -791,7 +791,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -804,18 +804,18 @@
         <v>0.66</v>
       </c>
       <c r="H6" s="1">
-        <v>0.3</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -826,18 +826,18 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -848,18 +848,18 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -870,7 +870,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -881,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -892,18 +892,18 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -916,18 +916,18 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -940,18 +940,18 @@
         <v>0.45</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
@@ -964,18 +964,18 @@
         <v>0.71</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>0.3333333</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
@@ -986,18 +986,18 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
@@ -1010,18 +1010,18 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -1032,18 +1032,18 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
@@ -1056,7 +1056,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
